--- a/Results/VCG-Vulnerable-Web-App.xlsx
+++ b/Results/VCG-Vulnerable-Web-App.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syeda\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Winter 2020\CMPUT 664\Project\Progress\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{708C5E3F-B182-4EA7-B06B-9FB8AECBE1E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402CE1D5-E624-429B-B094-40D5429C4A99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL Injection" sheetId="2" r:id="rId1"/>
     <sheet name="XSS" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">XSS!$D$1:$D$37</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="31">
   <si>
     <t>VCG Results</t>
   </si>
@@ -59,9 +62,6 @@
     <t>fileupload3.php</t>
   </si>
   <si>
-    <t>VCG True Positives</t>
-  </si>
-  <si>
     <t>index.php</t>
   </si>
   <si>
@@ -71,9 +71,6 @@
     <t>Actual True Positives</t>
   </si>
   <si>
-    <t>False Negatives</t>
-  </si>
-  <si>
     <t>lvl1.php</t>
   </si>
   <si>
@@ -114,12 +111,18 @@
   </si>
   <si>
     <t>No SQL Injection found</t>
+  </si>
+  <si>
+    <t>False Positives by VCG</t>
+  </si>
+  <si>
+    <t>True Positives by VCG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -603,9 +606,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -960,7 +965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -972,7 +977,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -981,11 +986,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:H11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,11 +998,12 @@
     <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1022,7 +1028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1033,7 +1039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1044,7 +1050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1055,7 +1061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1066,7 +1072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1077,7 +1083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1088,251 +1094,254 @@
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>217</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>153</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>174</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>210</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>183</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>190</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>224</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>231</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>242</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>139</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24">
         <v>132</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -1340,10 +1349,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -1351,10 +1357,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -1362,10 +1365,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -1373,10 +1373,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -1384,10 +1381,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -1395,10 +1389,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -1406,9 +1397,6 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" t="s">
         <v>22</v>
       </c>
       <c r="D32" t="s">
@@ -1417,9 +1405,6 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" t="s">
         <v>23</v>
       </c>
       <c r="D33" t="s">
@@ -1428,10 +1413,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -1439,10 +1421,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -1450,10 +1429,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -1461,31 +1437,14 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C40" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="D1:D37" xr:uid="{49093B41-648E-4732-B1C2-0EBEE60E1CB7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
